--- a/data/equipements.xlsx
+++ b/data/equipements.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZARAVITA\Vibra Service - Analyse Vibratoire\Digitalisation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCE9707-4AA9-4F19-8AEB-5F2A8C88E992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>id_equipement</t>
+  </si>
+  <si>
+    <t>nom_equipement</t>
+  </si>
+  <si>
+    <t>departement</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>EQ003</t>
+  </si>
+  <si>
+    <t>Ventilateur C3</t>
+  </si>
+  <si>
+    <t>Logistique</t>
+  </si>
+  <si>
+    <t>EQ004</t>
+  </si>
+  <si>
+    <t>Convoyeur D4</t>
+  </si>
+  <si>
+    <t>EQ005</t>
+  </si>
+  <si>
+    <t>Broyeur E5</t>
+  </si>
+  <si>
+    <t>244-3P-1</t>
+  </si>
+  <si>
+    <t>Chargement</t>
+  </si>
+  <si>
+    <t>non_spécifié</t>
+  </si>
+  <si>
+    <t>244-3P-2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,119 +426,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id_equipement</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>nom_equipement</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>departement</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>EQ001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Compresseur A1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>EQ002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Pompe hydraulique B2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EQ003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ventilateur C3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Logistique</t>
-        </is>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EQ004</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Convoyeur D4</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Logistique</t>
-        </is>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>EQ005</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Broyeur E5</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/equipements.xlsx
+++ b/data/equipements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZARAVITA\Vibra Service - Analyse Vibratoire\Digitalisation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCE9707-4AA9-4F19-8AEB-5F2A8C88E992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0DACEC-115B-454D-8CBE-F98D9C4D3BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="246">
   <si>
     <t>id_equipement</t>
   </si>
@@ -31,30 +31,6 @@
     <t>departement</t>
   </si>
   <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>EQ003</t>
-  </si>
-  <si>
-    <t>Ventilateur C3</t>
-  </si>
-  <si>
-    <t>Logistique</t>
-  </si>
-  <si>
-    <t>EQ004</t>
-  </si>
-  <si>
-    <t>Convoyeur D4</t>
-  </si>
-  <si>
-    <t>EQ005</t>
-  </si>
-  <si>
-    <t>Broyeur E5</t>
-  </si>
-  <si>
     <t>244-3P-1</t>
   </si>
   <si>
@@ -65,13 +41,730 @@
   </si>
   <si>
     <t>244-3P-2</t>
+  </si>
+  <si>
+    <t>244-4P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39-14P </t>
+  </si>
+  <si>
+    <t>39-1C</t>
+  </si>
+  <si>
+    <t>39-37P</t>
+  </si>
+  <si>
+    <t>39-9P</t>
+  </si>
+  <si>
+    <t>40-4P</t>
+  </si>
+  <si>
+    <t>44-3P-1</t>
+  </si>
+  <si>
+    <t>44-3P-2</t>
+  </si>
+  <si>
+    <t>44-40P</t>
+  </si>
+  <si>
+    <t>44-4P-1</t>
+  </si>
+  <si>
+    <t>44-4P-2</t>
+  </si>
+  <si>
+    <t>262-1P-4</t>
+  </si>
+  <si>
+    <t>262-6C-2</t>
+  </si>
+  <si>
+    <t>262-6C-3</t>
+  </si>
+  <si>
+    <t>38-82P-1</t>
+  </si>
+  <si>
+    <t>38-82P-2</t>
+  </si>
+  <si>
+    <t>38-83H-1</t>
+  </si>
+  <si>
+    <t>38-83H-2</t>
+  </si>
+  <si>
+    <t>38-85P-1</t>
+  </si>
+  <si>
+    <t>38-85P-2</t>
+  </si>
+  <si>
+    <t>6000-1C</t>
+  </si>
+  <si>
+    <t>62-17P</t>
+  </si>
+  <si>
+    <t>62-1P-1</t>
+  </si>
+  <si>
+    <t>62-2P-1</t>
+  </si>
+  <si>
+    <t>62-2P-2</t>
+  </si>
+  <si>
+    <t>32-1H-3</t>
+  </si>
+  <si>
+    <t>32-1H-4</t>
+  </si>
+  <si>
+    <t>32-3P-1</t>
+  </si>
+  <si>
+    <t>32-3P-2</t>
+  </si>
+  <si>
+    <t>33-21P</t>
+  </si>
+  <si>
+    <t>35-15P</t>
+  </si>
+  <si>
+    <t>37-4C-1</t>
+  </si>
+  <si>
+    <t>37-4C-2</t>
+  </si>
+  <si>
+    <t>38-2P-1</t>
+  </si>
+  <si>
+    <t>38-2P-2</t>
+  </si>
+  <si>
+    <t>38-32P</t>
+  </si>
+  <si>
+    <t>38-34P</t>
+  </si>
+  <si>
+    <t>38-56P</t>
+  </si>
+  <si>
+    <t>39-17P</t>
+  </si>
+  <si>
+    <t>39-41P</t>
+  </si>
+  <si>
+    <t>39-43P</t>
+  </si>
+  <si>
+    <t>39-4P</t>
+  </si>
+  <si>
+    <t>39-61P</t>
+  </si>
+  <si>
+    <t>chlore 1</t>
+  </si>
+  <si>
+    <t>chlore 2</t>
+  </si>
+  <si>
+    <t>232-1H1</t>
+  </si>
+  <si>
+    <t>232-1H2</t>
+  </si>
+  <si>
+    <t>232-3P-1</t>
+  </si>
+  <si>
+    <t>232-3P-2</t>
+  </si>
+  <si>
+    <t>233-1C-1</t>
+  </si>
+  <si>
+    <t>233-1C-2</t>
+  </si>
+  <si>
+    <t>235-11P-1</t>
+  </si>
+  <si>
+    <t>235-11P-2</t>
+  </si>
+  <si>
+    <t>235-20P-1</t>
+  </si>
+  <si>
+    <t>235-20P-2</t>
+  </si>
+  <si>
+    <t>235-29P</t>
+  </si>
+  <si>
+    <t>235-6P-1</t>
+  </si>
+  <si>
+    <t>235-6P-2</t>
+  </si>
+  <si>
+    <t>235-7P</t>
+  </si>
+  <si>
+    <t>236-4C-1</t>
+  </si>
+  <si>
+    <t>236-4C2</t>
+  </si>
+  <si>
+    <t>237-9P-1</t>
+  </si>
+  <si>
+    <t>237-9P-2</t>
+  </si>
+  <si>
+    <t>237-9P-3</t>
+  </si>
+  <si>
+    <t>238-19P-1</t>
+  </si>
+  <si>
+    <t>238-19P-2</t>
+  </si>
+  <si>
+    <t>238-23P-1</t>
+  </si>
+  <si>
+    <t>238-23P-2</t>
+  </si>
+  <si>
+    <t>238-25P-1</t>
+  </si>
+  <si>
+    <t>238-25P-2</t>
+  </si>
+  <si>
+    <t>238-2P-1</t>
+  </si>
+  <si>
+    <t>238-2P-2</t>
+  </si>
+  <si>
+    <t>238-32P</t>
+  </si>
+  <si>
+    <t>238-47P-2</t>
+  </si>
+  <si>
+    <t>238-4C-01</t>
+  </si>
+  <si>
+    <t>238-4C-02</t>
+  </si>
+  <si>
+    <t>238-52P</t>
+  </si>
+  <si>
+    <t>238-53C</t>
+  </si>
+  <si>
+    <t>239-17P-1</t>
+  </si>
+  <si>
+    <t>239-17P-2</t>
+  </si>
+  <si>
+    <t>239-34P</t>
+  </si>
+  <si>
+    <t>239-42P</t>
+  </si>
+  <si>
+    <t>239-43P</t>
+  </si>
+  <si>
+    <t>239-81P</t>
+  </si>
+  <si>
+    <t>239-85P</t>
+  </si>
+  <si>
+    <t>239-86P</t>
+  </si>
+  <si>
+    <t>239-8P</t>
+  </si>
+  <si>
+    <t>239-9P</t>
+  </si>
+  <si>
+    <t>25-24P</t>
+  </si>
+  <si>
+    <t>26-44P-1</t>
+  </si>
+  <si>
+    <t>26-44P-2</t>
+  </si>
+  <si>
+    <t>Electrolyse 1</t>
+  </si>
+  <si>
+    <t>Electrolyse 2</t>
+  </si>
+  <si>
+    <t>214-14-C</t>
+  </si>
+  <si>
+    <t>214-16P-1</t>
+  </si>
+  <si>
+    <t>214-16P-2</t>
+  </si>
+  <si>
+    <t>214-24P-1</t>
+  </si>
+  <si>
+    <t>214-24P-2</t>
+  </si>
+  <si>
+    <t>214-26P-1</t>
+  </si>
+  <si>
+    <t>214-26P-2</t>
+  </si>
+  <si>
+    <t>214-61P-1</t>
+  </si>
+  <si>
+    <t>214-61P-2</t>
+  </si>
+  <si>
+    <t>214-61P-3</t>
+  </si>
+  <si>
+    <t>214-74P</t>
+  </si>
+  <si>
+    <t>222-3P</t>
+  </si>
+  <si>
+    <t>223-3P-1</t>
+  </si>
+  <si>
+    <t>223-3P-3</t>
+  </si>
+  <si>
+    <t>44-43P</t>
+  </si>
+  <si>
+    <t>54-1C-1</t>
+  </si>
+  <si>
+    <t>54-1C-2</t>
+  </si>
+  <si>
+    <t>54-1C-3</t>
+  </si>
+  <si>
+    <t>54-1P-1</t>
+  </si>
+  <si>
+    <t>54-1P-2</t>
+  </si>
+  <si>
+    <t>54-2P-1</t>
+  </si>
+  <si>
+    <t>54-2P-2</t>
+  </si>
+  <si>
+    <t>54-2P-3</t>
+  </si>
+  <si>
+    <t>240-ACC-01</t>
+  </si>
+  <si>
+    <t>240-ACC-02</t>
+  </si>
+  <si>
+    <t>240-ACC-03</t>
+  </si>
+  <si>
+    <t>240-ACC-04</t>
+  </si>
+  <si>
+    <t>240-ALT-01</t>
+  </si>
+  <si>
+    <t>240-ALT-02</t>
+  </si>
+  <si>
+    <t>240-ALT-03</t>
+  </si>
+  <si>
+    <t>240-ALT-04</t>
+  </si>
+  <si>
+    <t>240-ALT-06</t>
+  </si>
+  <si>
+    <t>240-ALT-09</t>
+  </si>
+  <si>
+    <t>240-CF01 ESSO</t>
+  </si>
+  <si>
+    <t>240-CF-01A P.HYD</t>
+  </si>
+  <si>
+    <t>240-CF-02 ESSO.</t>
+  </si>
+  <si>
+    <t>240-CF-02A P.HYD</t>
+  </si>
+  <si>
+    <t>240-PC-01</t>
+  </si>
+  <si>
+    <t>240-PC-02</t>
+  </si>
+  <si>
+    <t>240-PC-03</t>
+  </si>
+  <si>
+    <t>240-PL-01</t>
+  </si>
+  <si>
+    <t>240-PL-02</t>
+  </si>
+  <si>
+    <t>240-PL-03</t>
+  </si>
+  <si>
+    <t>240-PL-04</t>
+  </si>
+  <si>
+    <t>240-PL-05</t>
+  </si>
+  <si>
+    <t>240-PL-06A</t>
+  </si>
+  <si>
+    <t>240-PL-06B</t>
+  </si>
+  <si>
+    <t>240-PL-07</t>
+  </si>
+  <si>
+    <t>240-PL-08</t>
+  </si>
+  <si>
+    <t>240-PL-09</t>
+  </si>
+  <si>
+    <t>240-PL-10</t>
+  </si>
+  <si>
+    <t>240-PL-11</t>
+  </si>
+  <si>
+    <t>240-PR-01</t>
+  </si>
+  <si>
+    <t>240-PR-02</t>
+  </si>
+  <si>
+    <t>240-PR-03</t>
+  </si>
+  <si>
+    <t>240-PR-04</t>
+  </si>
+  <si>
+    <t>240-PR-05</t>
+  </si>
+  <si>
+    <t>240-PW-01</t>
+  </si>
+  <si>
+    <t>240-PW-02</t>
+  </si>
+  <si>
+    <t>240-PW-03</t>
+  </si>
+  <si>
+    <t>240-PW-04</t>
+  </si>
+  <si>
+    <t>240-PW-05A</t>
+  </si>
+  <si>
+    <t>240-PW-05B</t>
+  </si>
+  <si>
+    <t>240-PW-06</t>
+  </si>
+  <si>
+    <t>240-PW-07</t>
+  </si>
+  <si>
+    <t>240-PW-08</t>
+  </si>
+  <si>
+    <t>243-3P</t>
+  </si>
+  <si>
+    <t>244-28C</t>
+  </si>
+  <si>
+    <t>254-1U1</t>
+  </si>
+  <si>
+    <t>254-1U-2</t>
+  </si>
+  <si>
+    <t>254-1U-3</t>
+  </si>
+  <si>
+    <t>254-1P-01</t>
+  </si>
+  <si>
+    <t>254-1P-02</t>
+  </si>
+  <si>
+    <t>254-1P-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254-1u1-2-3 </t>
+  </si>
+  <si>
+    <t>214-89A</t>
+  </si>
+  <si>
+    <t>214-90-A</t>
+  </si>
+  <si>
+    <t>214-91P-1</t>
+  </si>
+  <si>
+    <t>214-91P-2</t>
+  </si>
+  <si>
+    <t>214-91P-3</t>
+  </si>
+  <si>
+    <t>214-96P1</t>
+  </si>
+  <si>
+    <t>214-96P-2</t>
+  </si>
+  <si>
+    <t>214-96P-3</t>
+  </si>
+  <si>
+    <t>215-15C</t>
+  </si>
+  <si>
+    <t>215-1A</t>
+  </si>
+  <si>
+    <t>215-21P-1</t>
+  </si>
+  <si>
+    <t>215-21P-2</t>
+  </si>
+  <si>
+    <t>215-23P</t>
+  </si>
+  <si>
+    <t>215-24P</t>
+  </si>
+  <si>
+    <t>215-25P</t>
+  </si>
+  <si>
+    <t>215-2A</t>
+  </si>
+  <si>
+    <t>215-3A</t>
+  </si>
+  <si>
+    <t>215-46A</t>
+  </si>
+  <si>
+    <t>215-48A</t>
+  </si>
+  <si>
+    <t>257-10P-1</t>
+  </si>
+  <si>
+    <t>257-10P-2</t>
+  </si>
+  <si>
+    <t>257-6P-2</t>
+  </si>
+  <si>
+    <t>257-9P</t>
+  </si>
+  <si>
+    <t>16V-1</t>
+  </si>
+  <si>
+    <t>16V-2</t>
+  </si>
+  <si>
+    <t>44-59E</t>
+  </si>
+  <si>
+    <t>GÉNÉRATRICE</t>
+  </si>
+  <si>
+    <t>38-2P-3</t>
+  </si>
+  <si>
+    <t>38-45P</t>
+  </si>
+  <si>
+    <t>38-48P</t>
+  </si>
+  <si>
+    <t>38-49P</t>
+  </si>
+  <si>
+    <t>38-53P</t>
+  </si>
+  <si>
+    <t>38-58P-1</t>
+  </si>
+  <si>
+    <t>38-58P-2</t>
+  </si>
+  <si>
+    <t>38-62P-1</t>
+  </si>
+  <si>
+    <t>38-62P-2</t>
+  </si>
+  <si>
+    <t>38-80P-1</t>
+  </si>
+  <si>
+    <t>38-95P</t>
+  </si>
+  <si>
+    <t>40-76P-3</t>
+  </si>
+  <si>
+    <t>HYPO</t>
+  </si>
+  <si>
+    <t>40-126C</t>
+  </si>
+  <si>
+    <t>TR3-40-33P-M1</t>
+  </si>
+  <si>
+    <t>40-127C-2</t>
+  </si>
+  <si>
+    <t>REDRESSEUR</t>
+  </si>
+  <si>
+    <t>13-10P-1</t>
+  </si>
+  <si>
+    <t>13-10P-2</t>
+  </si>
+  <si>
+    <t>14-28P</t>
+  </si>
+  <si>
+    <t>14-39A</t>
+  </si>
+  <si>
+    <t>14-41A</t>
+  </si>
+  <si>
+    <t>14-4P-1</t>
+  </si>
+  <si>
+    <t>14-4P-2</t>
+  </si>
+  <si>
+    <t>14-80M-1</t>
+  </si>
+  <si>
+    <t>14-80M-2</t>
+  </si>
+  <si>
+    <t>14-81M-1</t>
+  </si>
+  <si>
+    <t>14-81M-2</t>
+  </si>
+  <si>
+    <t>14-98A-01</t>
+  </si>
+  <si>
+    <t>214-12P-2</t>
+  </si>
+  <si>
+    <t>214-131-P1</t>
+  </si>
+  <si>
+    <t>214-131-P2</t>
+  </si>
+  <si>
+    <t>214-138A</t>
+  </si>
+  <si>
+    <t>214-28P</t>
+  </si>
+  <si>
+    <t>214-39A</t>
+  </si>
+  <si>
+    <t>214-3A-1</t>
+  </si>
+  <si>
+    <t>214-3A-2</t>
+  </si>
+  <si>
+    <t>214-40A</t>
+  </si>
+  <si>
+    <t>214-41A</t>
+  </si>
+  <si>
+    <t>SAUMURE</t>
+  </si>
+  <si>
+    <t>CHAUFFERIE</t>
+  </si>
+  <si>
+    <t>FILTRATION</t>
+  </si>
+  <si>
+    <t>ÉVAPO 1</t>
+  </si>
+  <si>
+    <t>ÉVAPO 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +777,70 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -117,17 +867,148 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7AAE9B22-9F96-40FF-8347-5ECDB4EB3D9D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="C116" sqref="C116:C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,61 +1331,2526 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/equipements.xlsx
+++ b/data/equipements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZARAVITA\Vibra Service - Analyse Vibratoire\Digitalisation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0DACEC-115B-454D-8CBE-F98D9C4D3BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BE609B-B8E8-44C2-8662-D93CA1A2F58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
